--- a/Results/CircleResults/2014/Human_Circle_2014.xlsx
+++ b/Results/CircleResults/2014/Human_Circle_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\CircleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\CircleResults\2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Humano</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>% sobre optimo</t>
+  </si>
+  <si>
+    <t>Porcentaje sobre optimo</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:S55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45:U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>4</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>14</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>15</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>21</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>18</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>7</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>29</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>24</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>27</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>44</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>72</v>
       </c>
@@ -2934,8 +2937,14 @@
       <c r="S44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>1000*($T34-C34)/$T34+100*C23</f>
         <v>1000</v>
@@ -3004,8 +3013,15 @@
         <f>AVERAGE(C45:R45)</f>
         <v>940.625</v>
       </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>1000</v>
+      </c>
+      <c r="U45" s="3">
+        <f>100*S45/T45</f>
+        <v>94.0625</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:R54" si="3">1000*($T35-C35)/$T35+100*C24</f>
         <v>988.88888888888891</v>
@@ -3074,8 +3090,15 @@
         <f t="shared" ref="S46:S56" si="4">AVERAGE(C46:R46)</f>
         <v>864.58333333333337</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>1100</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" ref="U46:U55" si="5">100*S46/T46</f>
+        <v>78.598484848484858</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="3"/>
         <v>1050</v>
@@ -3144,8 +3167,15 @@
         <f t="shared" si="4"/>
         <v>608.33333333333337</v>
       </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>1150</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="5"/>
+        <v>52.89855072463768</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="3"/>
         <v>1137.5</v>
@@ -3214,8 +3244,15 @@
         <f t="shared" si="4"/>
         <v>1101.5625</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>1250</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="5"/>
+        <v>88.125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <f t="shared" si="3"/>
         <v>942.85714285714289</v>
@@ -3284,8 +3321,15 @@
         <f t="shared" si="4"/>
         <v>866.07142857142867</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>986</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="5"/>
+        <v>87.836858881483636</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <f t="shared" si="3"/>
         <v>1025</v>
@@ -3354,8 +3398,15 @@
         <f t="shared" si="4"/>
         <v>946.875</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>1025</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="5"/>
+        <v>92.378048780487802</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f t="shared" si="3"/>
         <v>816.66666666666663</v>
@@ -3424,8 +3475,15 @@
         <f t="shared" si="4"/>
         <v>536.45833333333337</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>1100</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="5"/>
+        <v>48.768939393939398</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <f t="shared" si="3"/>
         <v>700</v>
@@ -3494,8 +3552,15 @@
         <f t="shared" si="4"/>
         <v>628.125</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>725</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="5"/>
+        <v>86.637931034482762</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <f t="shared" si="3"/>
         <v>962.5</v>
@@ -3564,8 +3629,15 @@
         <f t="shared" si="4"/>
         <v>942.96875</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>1025</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="5"/>
+        <v>91.996951219512198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f t="shared" si="3"/>
         <v>860</v>
@@ -3634,8 +3706,15 @@
         <f t="shared" si="4"/>
         <v>551.25</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>1090</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="5"/>
+        <v>50.573394495412842</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>88</v>
       </c>
@@ -3644,71 +3723,78 @@
         <v>9483.4126984126997</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:R55" si="5">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:R55" si="6">SUM(D45:D54)</f>
         <v>8627.7380952380954</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6810.3571428571431</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7648.8095238095239</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7684.5238095238092</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8481.230158730159</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8971.3095238095229</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7215.8730158730159</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7300.1984126984125</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8344.0873015873021</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8003.4920634920636</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8535</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6867.7777777777774</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6513.2936507936502</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8804.6428571428569</v>
       </c>
       <c r="R55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8497.8968253968269</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" si="4"/>
         <v>7986.8526785714312</v>
       </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>10451</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="5"/>
+        <v>76.421899134737643</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>89</v>
       </c>
@@ -3717,63 +3803,63 @@
         <v>0.90741677336261595</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:R56" si="6">D55/$J14</f>
+        <f t="shared" ref="D56:R56" si="7">D55/$J14</f>
         <v>0.8255418711355943</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65164645898546958</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73187345936365167</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73529076734511623</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81152331439385317</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85841637391728287</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69044809261056506</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69851673645568968</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79840085174502939</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76581112462846268</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81666826141039139</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65714073081789082</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62322205059742131</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84246893667044842</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81311805811853666</v>
       </c>
       <c r="S56" s="1">
